--- a/src/test/resources/Exceldata/RegisterTestData.xlsx
+++ b/src/test/resources/Exceldata/RegisterTestData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{15F1CF5F-D571-4FCD-9812-8AD979DC2914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\DSALGO\src\test\resources\Exceldata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BD8DB38-E175-4530-AA55-A6FB1C3B43C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5FAF92AB-1E15-46C3-98CE-DF4DA59083B8}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8170" xr2:uid="{76F674C3-FE61-4610-8297-7D840DA2FBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -41,56 +45,41 @@
     <t>ConfirmPassword</t>
   </si>
   <si>
+    <t>Numpyninja</t>
+  </si>
+  <si>
+    <t>Codecrafters#$563</t>
+  </si>
+  <si>
+    <t>Codecrafters&amp;345</t>
+  </si>
+  <si>
+    <t>dsalgo</t>
+  </si>
+  <si>
+    <t>dsalgo234</t>
+  </si>
+  <si>
+    <t>dsalgo888898</t>
+  </si>
+  <si>
     <t>Sherin</t>
   </si>
   <si>
-    <t>Hello%6734</t>
-  </si>
-  <si>
-    <t>Numpyninja</t>
-  </si>
-  <si>
-    <t>dsalgo</t>
-  </si>
-  <si>
-    <t>dsalgo234</t>
-  </si>
-  <si>
-    <t>dsalgo888898</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>Codecrafters@123</t>
+    <t>Hello&amp;123</t>
+  </si>
+  <si>
+    <t>Hello&amp;678</t>
+  </si>
+  <si>
+    <t>Hello%6733</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF004085"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +89,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,19 +113,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,86 +433,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197AB6F2-086E-4298-9841-43FC0A79FB29}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB8D261-E106-4330-86C1-C595A0C605B1}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{37FEDCFA-6CCD-491D-B5EF-9F111BFAF379}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{01C61D63-1F10-4837-B613-765BF935E442}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>